--- a/DJOLT_results/result_compiled.xlsx
+++ b/DJOLT_results/result_compiled.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon/Documents/CoursesWi22/CSE240C/Homework1/ChampSim/DJOLT_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04BBAD-0E24-EC48-943A-C1ADD82FCE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E15E008-3296-8F46-AB4D-E2BA11C6965B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="500" windowWidth="29840" windowHeight="20160" xr2:uid="{AF1F8748-4DF4-B24E-BAD1-D6480DB021CA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16520" xr2:uid="{AF1F8748-4DF4-B24E-BAD1-D6480DB021CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -633,13 +633,14 @@
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="2" customWidth="1"/>
     <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" customWidth="1"/>
-    <col min="7" max="7" width="4.5" customWidth="1"/>
-    <col min="8" max="8" width="5.5" customWidth="1"/>
-    <col min="9" max="9" width="3.5" customWidth="1"/>
-    <col min="10" max="10" width="3.1640625" customWidth="1"/>
-    <col min="11" max="12" width="2.1640625" customWidth="1"/>
-    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="4.6640625" customWidth="1"/>
     <col min="16" max="16" width="4.5" customWidth="1"/>
     <col min="17" max="17" width="3.6640625" customWidth="1"/>
@@ -808,14 +809,14 @@
         <v>13639</v>
       </c>
       <c r="W2">
-        <f>V2/50000</f>
+        <f t="shared" ref="W2:W33" si="0">V2/50000</f>
         <v>0.27278000000000002</v>
       </c>
       <c r="X2">
         <v>13639</v>
       </c>
       <c r="Y2">
-        <f>X2/50000</f>
+        <f t="shared" ref="Y2:Y33" si="1">X2/50000</f>
         <v>0.27278000000000002</v>
       </c>
     </row>
@@ -827,84 +828,84 @@
         <v>466965</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C51" si="0">B3/50000</f>
+        <f t="shared" ref="C3:C51" si="2">B3/50000</f>
         <v>9.3392999999999997</v>
       </c>
       <c r="D3">
         <v>37617</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E51" si="1">D3/50000</f>
+        <f t="shared" ref="E3:E51" si="3">D3/50000</f>
         <v>0.75234000000000001</v>
       </c>
       <c r="F3">
         <v>42638</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G51" si="2">F3/50000</f>
+        <f t="shared" ref="G3:G51" si="4">F3/50000</f>
         <v>0.85275999999999996</v>
       </c>
       <c r="H3">
         <v>41865</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I51" si="3">H3/50000</f>
+        <f t="shared" ref="I3:I51" si="5">H3/50000</f>
         <v>0.83730000000000004</v>
       </c>
       <c r="J3">
         <v>29271</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K50" si="4">J3/50000</f>
+        <f t="shared" ref="K3:K50" si="6">J3/50000</f>
         <v>0.58542000000000005</v>
       </c>
       <c r="L3">
         <v>69364</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="L3:M51" si="5">L3/50000</f>
+        <f t="shared" ref="L3:M51" si="7">L3/50000</f>
         <v>1.3872800000000001</v>
       </c>
       <c r="N3">
         <v>75354</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="N3:O51" si="6">N3/50000</f>
+        <f t="shared" ref="N3:O51" si="8">N3/50000</f>
         <v>1.50708</v>
       </c>
       <c r="P3">
         <v>51237</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="P3:Q51" si="7">P3/50000</f>
+        <f t="shared" ref="P3:Q51" si="9">P3/50000</f>
         <v>1.02474</v>
       </c>
       <c r="R3">
         <v>118080</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="R3:S51" si="8">R3/50000</f>
+        <f t="shared" ref="R3:S51" si="10">R3/50000</f>
         <v>2.3616000000000001</v>
       </c>
       <c r="T3">
         <v>27989</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="T3:U51" si="9">T3/50000</f>
+        <f t="shared" ref="U3:U49" si="11">T3/50000</f>
         <v>0.55978000000000006</v>
       </c>
       <c r="V3">
         <v>30890</v>
       </c>
       <c r="W3">
-        <f>V3/50000</f>
+        <f t="shared" si="0"/>
         <v>0.61780000000000002</v>
       </c>
       <c r="X3">
         <v>30890</v>
       </c>
       <c r="Y3">
-        <f>X3/50000</f>
+        <f t="shared" si="1"/>
         <v>0.61780000000000002</v>
       </c>
     </row>
@@ -916,84 +917,84 @@
         <v>406643</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1328600000000009</v>
       </c>
       <c r="D4">
         <v>95120</v>
       </c>
       <c r="E4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.9024000000000001</v>
       </c>
       <c r="F4">
         <v>101196</v>
       </c>
       <c r="G4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.0239199999999999</v>
       </c>
       <c r="H4">
         <v>87458</v>
       </c>
       <c r="I4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.74916</v>
       </c>
       <c r="J4">
         <v>91812</v>
       </c>
       <c r="K4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8362400000000001</v>
       </c>
       <c r="L4">
         <v>123381</v>
       </c>
       <c r="M4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.4676200000000001</v>
       </c>
       <c r="N4">
         <v>104599</v>
       </c>
       <c r="O4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.09198</v>
       </c>
       <c r="P4">
         <v>106998</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1399599999999999</v>
       </c>
       <c r="R4">
         <v>118394</v>
       </c>
       <c r="S4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.36788</v>
       </c>
       <c r="T4">
         <v>84196</v>
       </c>
       <c r="U4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.6839200000000001</v>
       </c>
       <c r="V4">
         <v>74558</v>
       </c>
       <c r="W4">
-        <f>V4/50000</f>
+        <f t="shared" si="0"/>
         <v>1.49116</v>
       </c>
       <c r="X4">
         <v>74558</v>
       </c>
       <c r="Y4">
-        <f>X4/50000</f>
+        <f t="shared" si="1"/>
         <v>1.49116</v>
       </c>
     </row>
@@ -1005,84 +1006,84 @@
         <v>499912</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.9982399999999991</v>
       </c>
       <c r="D5">
         <v>144740</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.8948</v>
       </c>
       <c r="F5">
         <v>153664</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.07328</v>
       </c>
       <c r="H5">
         <v>138963</v>
       </c>
       <c r="I5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.7792599999999998</v>
       </c>
       <c r="J5">
         <v>146741</v>
       </c>
       <c r="K5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.9348200000000002</v>
       </c>
       <c r="L5">
         <v>167289</v>
       </c>
       <c r="M5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.34578</v>
       </c>
       <c r="N5">
         <v>157399</v>
       </c>
       <c r="O5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.14798</v>
       </c>
       <c r="P5">
         <v>154854</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.0970800000000001</v>
       </c>
       <c r="R5">
         <v>174078</v>
       </c>
       <c r="S5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.48156</v>
       </c>
       <c r="T5">
         <v>130283</v>
       </c>
       <c r="U5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.6056599999999999</v>
       </c>
       <c r="V5">
         <v>123439</v>
       </c>
       <c r="W5">
-        <f>V5/50000</f>
+        <f t="shared" si="0"/>
         <v>2.4687800000000002</v>
       </c>
       <c r="X5">
         <v>123439</v>
       </c>
       <c r="Y5">
-        <f>X5/50000</f>
+        <f t="shared" si="1"/>
         <v>2.4687800000000002</v>
       </c>
     </row>
@@ -1094,84 +1095,84 @@
         <v>595434</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.90868</v>
       </c>
       <c r="D6">
         <v>149093</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.9818600000000002</v>
       </c>
       <c r="F6">
         <v>164995</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.2999000000000001</v>
       </c>
       <c r="H6">
         <v>140131</v>
       </c>
       <c r="I6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.8026200000000001</v>
       </c>
       <c r="J6">
         <v>155149</v>
       </c>
       <c r="K6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.1029800000000001</v>
       </c>
       <c r="L6">
         <v>198937</v>
       </c>
       <c r="M6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.9787400000000002</v>
       </c>
       <c r="N6">
         <v>167841</v>
       </c>
       <c r="O6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.3568199999999999</v>
       </c>
       <c r="P6">
         <v>172213</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.4442599999999999</v>
       </c>
       <c r="R6">
         <v>188605</v>
       </c>
       <c r="S6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.7721</v>
       </c>
       <c r="T6">
         <v>134827</v>
       </c>
       <c r="U6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.6965400000000002</v>
       </c>
       <c r="V6">
         <v>122661</v>
       </c>
       <c r="W6">
-        <f>V6/50000</f>
+        <f t="shared" si="0"/>
         <v>2.45322</v>
       </c>
       <c r="X6">
         <v>122661</v>
       </c>
       <c r="Y6">
-        <f>X6/50000</f>
+        <f t="shared" si="1"/>
         <v>2.45322</v>
       </c>
     </row>
@@ -1183,84 +1184,84 @@
         <v>686837</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.736739999999999</v>
       </c>
       <c r="D7">
         <v>13246</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.26491999999999999</v>
       </c>
       <c r="F7">
         <v>13938</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.27876000000000001</v>
       </c>
       <c r="H7">
         <v>11652</v>
       </c>
       <c r="I7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.23304</v>
       </c>
       <c r="J7">
         <v>12477</v>
       </c>
       <c r="K7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.24954000000000001</v>
       </c>
       <c r="L7">
         <v>14816</v>
       </c>
       <c r="M7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29631999999999997</v>
       </c>
       <c r="N7">
         <v>13785</v>
       </c>
       <c r="O7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.2757</v>
       </c>
       <c r="P7">
         <v>15768</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.31535999999999997</v>
       </c>
       <c r="R7">
         <v>15742</v>
       </c>
       <c r="S7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.31484000000000001</v>
       </c>
       <c r="T7">
         <v>13297</v>
       </c>
       <c r="U7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.26594000000000001</v>
       </c>
       <c r="V7">
         <v>13710</v>
       </c>
       <c r="W7">
-        <f>V7/50000</f>
+        <f t="shared" si="0"/>
         <v>0.2742</v>
       </c>
       <c r="X7">
         <v>13710</v>
       </c>
       <c r="Y7">
-        <f>X7/50000</f>
+        <f t="shared" si="1"/>
         <v>0.2742</v>
       </c>
     </row>
@@ -1272,84 +1273,84 @@
         <v>803283</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.065660000000001</v>
       </c>
       <c r="D8">
         <v>58572</v>
       </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.17144</v>
       </c>
       <c r="F8">
         <v>52653</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0530600000000001</v>
       </c>
       <c r="H8">
         <v>53403</v>
       </c>
       <c r="I8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.06806</v>
       </c>
       <c r="J8">
         <v>62917</v>
       </c>
       <c r="K8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.25834</v>
       </c>
       <c r="L8">
         <v>59588</v>
       </c>
       <c r="M8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1917599999999999</v>
       </c>
       <c r="N8">
         <v>58735</v>
       </c>
       <c r="O8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1747000000000001</v>
       </c>
       <c r="P8">
         <v>51637</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.03274</v>
       </c>
       <c r="R8">
         <v>58836</v>
       </c>
       <c r="S8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.17672</v>
       </c>
       <c r="T8">
         <v>55235</v>
       </c>
       <c r="U8">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.1047</v>
       </c>
       <c r="V8">
         <v>59236</v>
       </c>
       <c r="W8">
-        <f>V8/50000</f>
+        <f t="shared" si="0"/>
         <v>1.18472</v>
       </c>
       <c r="X8">
         <v>59236</v>
       </c>
       <c r="Y8">
-        <f>X8/50000</f>
+        <f t="shared" si="1"/>
         <v>1.18472</v>
       </c>
     </row>
@@ -1361,84 +1362,84 @@
         <v>672588</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.45176</v>
       </c>
       <c r="D9">
         <v>45468</v>
       </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.90935999999999995</v>
       </c>
       <c r="F9">
         <v>52057</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.04114</v>
       </c>
       <c r="H9">
         <v>40591</v>
       </c>
       <c r="I9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.81181999999999999</v>
       </c>
       <c r="J9">
         <v>45532</v>
       </c>
       <c r="K9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.91064000000000001</v>
       </c>
       <c r="L9">
         <v>58960</v>
       </c>
       <c r="M9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1792</v>
       </c>
       <c r="N9">
         <v>52255</v>
       </c>
       <c r="O9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0450999999999999</v>
       </c>
       <c r="P9">
         <v>51104</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0220800000000001</v>
       </c>
       <c r="R9">
         <v>55424</v>
       </c>
       <c r="S9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1084799999999999</v>
       </c>
       <c r="T9">
         <v>41851</v>
       </c>
       <c r="U9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.83701999999999999</v>
       </c>
       <c r="V9">
         <v>40881</v>
       </c>
       <c r="W9">
-        <f>V9/50000</f>
+        <f t="shared" si="0"/>
         <v>0.81762000000000001</v>
       </c>
       <c r="X9">
         <v>40881</v>
       </c>
       <c r="Y9">
-        <f>X9/50000</f>
+        <f t="shared" si="1"/>
         <v>0.81762000000000001</v>
       </c>
     </row>
@@ -1450,84 +1451,84 @@
         <v>501913</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.038259999999999</v>
       </c>
       <c r="D10">
         <v>27792</v>
       </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.55584</v>
       </c>
       <c r="F10">
         <v>26785</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.53569999999999995</v>
       </c>
       <c r="H10">
         <v>29850</v>
       </c>
       <c r="I10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.59699999999999998</v>
       </c>
       <c r="J10">
         <v>26837</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.53673999999999999</v>
       </c>
       <c r="L10">
         <v>34227</v>
       </c>
       <c r="M10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.68454000000000004</v>
       </c>
       <c r="N10">
         <v>32394</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.64788000000000001</v>
       </c>
       <c r="P10">
         <v>28842</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.57684000000000002</v>
       </c>
       <c r="R10">
         <v>40068</v>
       </c>
       <c r="S10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.80135999999999996</v>
       </c>
       <c r="T10">
         <v>26510</v>
       </c>
       <c r="U10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.5302</v>
       </c>
       <c r="V10">
         <v>26907</v>
       </c>
       <c r="W10">
-        <f>V10/50000</f>
+        <f t="shared" si="0"/>
         <v>0.53813999999999995</v>
       </c>
       <c r="X10">
         <v>26907</v>
       </c>
       <c r="Y10">
-        <f>X10/50000</f>
+        <f t="shared" si="1"/>
         <v>0.53813999999999995</v>
       </c>
     </row>
@@ -1539,84 +1540,84 @@
         <v>819601</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16.392019999999999</v>
       </c>
       <c r="D11">
         <v>40144</v>
       </c>
       <c r="E11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.80288000000000004</v>
       </c>
       <c r="F11">
         <v>21323</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.42646000000000001</v>
       </c>
       <c r="H11">
         <v>10870</v>
       </c>
       <c r="I11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.21740000000000001</v>
       </c>
       <c r="J11">
         <v>16071</v>
       </c>
       <c r="K11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.32141999999999998</v>
       </c>
       <c r="L11">
         <v>12836</v>
       </c>
       <c r="M11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.25672</v>
       </c>
       <c r="N11">
         <v>16148</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.32296000000000002</v>
       </c>
       <c r="P11">
         <v>16733</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.33466000000000001</v>
       </c>
       <c r="R11">
         <v>280</v>
       </c>
       <c r="S11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="T11">
         <v>22521</v>
       </c>
       <c r="U11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.45041999999999999</v>
       </c>
       <c r="V11">
         <v>20313</v>
       </c>
       <c r="W11">
-        <f>V11/50000</f>
+        <f t="shared" si="0"/>
         <v>0.40626000000000001</v>
       </c>
       <c r="X11">
         <v>20313</v>
       </c>
       <c r="Y11">
-        <f>X11/50000</f>
+        <f t="shared" si="1"/>
         <v>0.40626000000000001</v>
       </c>
     </row>
@@ -1628,84 +1629,84 @@
         <v>850923</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>17.018460000000001</v>
       </c>
       <c r="D12">
         <v>139771</v>
       </c>
       <c r="E12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.79542</v>
       </c>
       <c r="F12">
         <v>141206</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.8241200000000002</v>
       </c>
       <c r="H12">
         <v>160136</v>
       </c>
       <c r="I12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.2027199999999998</v>
       </c>
       <c r="J12">
         <v>138493</v>
       </c>
       <c r="K12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.76986</v>
       </c>
       <c r="L12">
         <v>169799</v>
       </c>
       <c r="M12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.3959800000000002</v>
       </c>
       <c r="N12">
         <v>175180</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5036</v>
       </c>
       <c r="P12">
         <v>155431</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1086200000000002</v>
       </c>
       <c r="R12">
         <v>214768</v>
       </c>
       <c r="S12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.2953599999999996</v>
       </c>
       <c r="T12">
         <v>117817</v>
       </c>
       <c r="U12">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.3563399999999999</v>
       </c>
       <c r="V12">
         <v>107643</v>
       </c>
       <c r="W12">
-        <f>V12/50000</f>
+        <f t="shared" si="0"/>
         <v>2.15286</v>
       </c>
       <c r="X12">
         <v>107643</v>
       </c>
       <c r="Y12">
-        <f>X12/50000</f>
+        <f t="shared" si="1"/>
         <v>2.15286</v>
       </c>
     </row>
@@ -1717,84 +1718,84 @@
         <v>1023044</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.46088</v>
       </c>
       <c r="D13">
         <v>116464</v>
       </c>
       <c r="E13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3292799999999998</v>
       </c>
       <c r="F13">
         <v>118353</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3670599999999999</v>
       </c>
       <c r="H13">
         <v>156803</v>
       </c>
       <c r="I13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>3.1360600000000001</v>
       </c>
       <c r="J13">
         <v>117407</v>
       </c>
       <c r="K13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.3481399999999999</v>
       </c>
       <c r="L13">
         <v>145328</v>
       </c>
       <c r="M13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.9065599999999998</v>
       </c>
       <c r="N13">
         <v>152079</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0415800000000002</v>
       </c>
       <c r="P13">
         <v>130242</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6048399999999998</v>
       </c>
       <c r="R13">
         <v>205630</v>
       </c>
       <c r="S13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.1125999999999996</v>
       </c>
       <c r="T13">
         <v>97493</v>
       </c>
       <c r="U13">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.9498599999999999</v>
       </c>
       <c r="V13">
         <v>98436</v>
       </c>
       <c r="W13">
-        <f>V13/50000</f>
+        <f t="shared" si="0"/>
         <v>1.96872</v>
       </c>
       <c r="X13">
         <v>98436</v>
       </c>
       <c r="Y13">
-        <f>X13/50000</f>
+        <f t="shared" si="1"/>
         <v>1.96872</v>
       </c>
     </row>
@@ -1806,84 +1807,84 @@
         <v>1022082</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>20.44164</v>
       </c>
       <c r="D14">
         <v>65575</v>
       </c>
       <c r="E14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3115000000000001</v>
       </c>
       <c r="F14">
         <v>65468</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3093600000000001</v>
       </c>
       <c r="H14">
         <v>98046</v>
       </c>
       <c r="I14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.96092</v>
       </c>
       <c r="J14">
         <v>66625</v>
       </c>
       <c r="K14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3325</v>
       </c>
       <c r="L14">
         <v>85425</v>
       </c>
       <c r="M14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.7084999999999999</v>
       </c>
       <c r="N14">
         <v>89228</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.7845599999999999</v>
       </c>
       <c r="P14">
         <v>69918</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.39836</v>
       </c>
       <c r="R14">
         <v>135598</v>
       </c>
       <c r="S14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.7119599999999999</v>
       </c>
       <c r="T14">
         <v>60247</v>
       </c>
       <c r="U14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2049399999999999</v>
       </c>
       <c r="V14">
         <v>60969</v>
       </c>
       <c r="W14">
-        <f>V14/50000</f>
+        <f t="shared" si="0"/>
         <v>1.2193799999999999</v>
       </c>
       <c r="X14">
         <v>60969</v>
       </c>
       <c r="Y14">
-        <f>X14/50000</f>
+        <f t="shared" si="1"/>
         <v>1.2193799999999999</v>
       </c>
     </row>
@@ -1895,84 +1896,84 @@
         <v>1135907</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>22.718139999999998</v>
       </c>
       <c r="D15">
         <v>68893</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3778600000000001</v>
       </c>
       <c r="F15">
         <v>67076</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.34152</v>
       </c>
       <c r="H15">
         <v>89723</v>
       </c>
       <c r="I15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.7944599999999999</v>
       </c>
       <c r="J15">
         <v>68612</v>
       </c>
       <c r="K15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3722399999999999</v>
       </c>
       <c r="L15">
         <v>90028</v>
       </c>
       <c r="M15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8005599999999999</v>
       </c>
       <c r="N15">
         <v>90910</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.8182</v>
       </c>
       <c r="P15">
         <v>70627</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.4125399999999999</v>
       </c>
       <c r="R15">
         <v>133297</v>
       </c>
       <c r="S15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.66594</v>
       </c>
       <c r="T15">
         <v>66167</v>
       </c>
       <c r="U15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.32334</v>
       </c>
       <c r="V15">
         <v>70031</v>
       </c>
       <c r="W15">
-        <f>V15/50000</f>
+        <f t="shared" si="0"/>
         <v>1.40062</v>
       </c>
       <c r="X15">
         <v>70031</v>
       </c>
       <c r="Y15">
-        <f>X15/50000</f>
+        <f t="shared" si="1"/>
         <v>1.40062</v>
       </c>
     </row>
@@ -1984,84 +1985,84 @@
         <v>1178749</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23.57498</v>
       </c>
       <c r="D16">
         <v>118132</v>
       </c>
       <c r="E16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.3626399999999999</v>
       </c>
       <c r="F16">
         <v>118199</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>2.3639800000000002</v>
       </c>
       <c r="H16">
         <v>145736</v>
       </c>
       <c r="I16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.91472</v>
       </c>
       <c r="J16">
         <v>120398</v>
       </c>
       <c r="K16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2.4079600000000001</v>
       </c>
       <c r="L16">
         <v>151444</v>
       </c>
       <c r="M16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.02888</v>
       </c>
       <c r="N16">
         <v>146482</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.92964</v>
       </c>
       <c r="P16">
         <v>132752</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.6550400000000001</v>
       </c>
       <c r="R16">
         <v>195542</v>
       </c>
       <c r="S16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.9108399999999999</v>
       </c>
       <c r="T16">
         <v>100912</v>
       </c>
       <c r="U16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>2.01824</v>
       </c>
       <c r="V16">
         <v>101533</v>
       </c>
       <c r="W16">
-        <f>V16/50000</f>
+        <f t="shared" si="0"/>
         <v>2.0306600000000001</v>
       </c>
       <c r="X16">
         <v>101533</v>
       </c>
       <c r="Y16">
-        <f>X16/50000</f>
+        <f t="shared" si="1"/>
         <v>2.0306600000000001</v>
       </c>
     </row>
@@ -2073,84 +2074,84 @@
         <v>1298534</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>25.970680000000002</v>
       </c>
       <c r="D17">
         <v>77031</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.5406200000000001</v>
       </c>
       <c r="F17">
         <v>75502</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.51004</v>
       </c>
       <c r="H17">
         <v>94279</v>
       </c>
       <c r="I17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.88558</v>
       </c>
       <c r="J17">
         <v>75736</v>
       </c>
       <c r="K17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.5147200000000001</v>
       </c>
       <c r="L17">
         <v>114140</v>
       </c>
       <c r="M17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.2827999999999999</v>
       </c>
       <c r="N17">
         <v>102569</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.05138</v>
       </c>
       <c r="P17">
         <v>78134</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.5626800000000001</v>
       </c>
       <c r="R17">
         <v>152002</v>
       </c>
       <c r="S17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.0400399999999999</v>
       </c>
       <c r="T17">
         <v>72693</v>
       </c>
       <c r="U17">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.4538599999999999</v>
       </c>
       <c r="V17">
         <v>79334</v>
       </c>
       <c r="W17">
-        <f>V17/50000</f>
+        <f t="shared" si="0"/>
         <v>1.5866800000000001</v>
       </c>
       <c r="X17">
         <v>79334</v>
       </c>
       <c r="Y17">
-        <f>X17/50000</f>
+        <f t="shared" si="1"/>
         <v>1.5866800000000001</v>
       </c>
     </row>
@@ -2162,84 +2163,84 @@
         <v>1355380</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27.107600000000001</v>
       </c>
       <c r="D18">
         <v>90926</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.8185199999999999</v>
       </c>
       <c r="F18">
         <v>87304</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7460800000000001</v>
       </c>
       <c r="H18">
         <v>130258</v>
       </c>
       <c r="I18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.6051600000000001</v>
       </c>
       <c r="J18">
         <v>90028</v>
       </c>
       <c r="K18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.8005599999999999</v>
       </c>
       <c r="L18">
         <v>129212</v>
       </c>
       <c r="M18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5842399999999999</v>
       </c>
       <c r="N18">
         <v>120752</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.4150399999999999</v>
       </c>
       <c r="P18">
         <v>92526</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.8505199999999999</v>
       </c>
       <c r="R18">
         <v>171232</v>
       </c>
       <c r="S18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3.4246400000000001</v>
       </c>
       <c r="T18">
         <v>82878</v>
       </c>
       <c r="U18">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.6575599999999999</v>
       </c>
       <c r="V18">
         <v>87024</v>
       </c>
       <c r="W18">
-        <f>V18/50000</f>
+        <f t="shared" si="0"/>
         <v>1.74048</v>
       </c>
       <c r="X18">
         <v>87024</v>
       </c>
       <c r="Y18">
-        <f>X18/50000</f>
+        <f t="shared" si="1"/>
         <v>1.74048</v>
       </c>
     </row>
@@ -2251,84 +2252,84 @@
         <v>1510549</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30.210979999999999</v>
       </c>
       <c r="D19">
         <v>34542</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.69084000000000001</v>
       </c>
       <c r="F19">
         <v>40820</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.81640000000000001</v>
       </c>
       <c r="H19">
         <v>20702</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.41404000000000002</v>
       </c>
       <c r="J19">
         <v>39386</v>
       </c>
       <c r="K19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.78771999999999998</v>
       </c>
       <c r="L19">
         <v>30888</v>
       </c>
       <c r="M19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.61775999999999998</v>
       </c>
       <c r="N19">
         <v>14145</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28289999999999998</v>
       </c>
       <c r="P19">
         <v>33436</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.66871999999999998</v>
       </c>
       <c r="R19">
         <v>37396</v>
       </c>
       <c r="S19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.74792000000000003</v>
       </c>
       <c r="T19">
         <v>25597</v>
       </c>
       <c r="U19">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.51193999999999995</v>
       </c>
       <c r="V19">
         <v>27328</v>
       </c>
       <c r="W19">
-        <f>V19/50000</f>
+        <f t="shared" si="0"/>
         <v>0.54656000000000005</v>
       </c>
       <c r="X19">
         <v>27328</v>
       </c>
       <c r="Y19">
-        <f>X19/50000</f>
+        <f t="shared" si="1"/>
         <v>0.54656000000000005</v>
       </c>
     </row>
@@ -2340,84 +2341,84 @@
         <v>1620271</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>32.405419999999999</v>
       </c>
       <c r="D20">
         <v>25162</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.50324000000000002</v>
       </c>
       <c r="F20">
         <v>27508</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.55015999999999998</v>
       </c>
       <c r="H20">
         <v>41470</v>
       </c>
       <c r="I20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.82940000000000003</v>
       </c>
       <c r="J20">
         <v>38390</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76780000000000004</v>
       </c>
       <c r="L20">
         <v>17419</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.34838000000000002</v>
       </c>
       <c r="N20">
         <v>30981</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.61961999999999995</v>
       </c>
       <c r="P20">
         <v>45276</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.90551999999999999</v>
       </c>
       <c r="R20">
         <v>26221</v>
       </c>
       <c r="S20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.52442</v>
       </c>
       <c r="T20">
         <v>27667</v>
       </c>
       <c r="U20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.55334000000000005</v>
       </c>
       <c r="V20">
         <v>29355</v>
       </c>
       <c r="W20">
-        <f>V20/50000</f>
+        <f t="shared" si="0"/>
         <v>0.58709999999999996</v>
       </c>
       <c r="X20">
         <v>29355</v>
       </c>
       <c r="Y20">
-        <f>X20/50000</f>
+        <f t="shared" si="1"/>
         <v>0.58709999999999996</v>
       </c>
     </row>
@@ -2429,84 +2430,84 @@
         <v>2075882</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>41.51764</v>
       </c>
       <c r="D21">
         <v>33927</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.67854000000000003</v>
       </c>
       <c r="F21">
         <v>39517</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.79034000000000004</v>
       </c>
       <c r="H21">
         <v>33858</v>
       </c>
       <c r="I21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.67715999999999998</v>
       </c>
       <c r="J21">
         <v>36204</v>
       </c>
       <c r="K21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.72407999999999995</v>
       </c>
       <c r="L21">
         <v>44744</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.89488000000000001</v>
       </c>
       <c r="N21">
         <v>35572</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.71143999999999996</v>
       </c>
       <c r="P21">
         <v>30810</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.61619999999999997</v>
       </c>
       <c r="R21">
         <v>36539</v>
       </c>
       <c r="S21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.73077999999999999</v>
       </c>
       <c r="T21">
         <v>35442</v>
       </c>
       <c r="U21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.70884000000000003</v>
       </c>
       <c r="V21">
         <v>34441</v>
       </c>
       <c r="W21">
-        <f>V21/50000</f>
+        <f t="shared" si="0"/>
         <v>0.68881999999999999</v>
       </c>
       <c r="X21">
         <v>34441</v>
       </c>
       <c r="Y21">
-        <f>X21/50000</f>
+        <f t="shared" si="1"/>
         <v>0.68881999999999999</v>
       </c>
     </row>
@@ -2518,84 +2519,84 @@
         <v>2165530</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43.310600000000001</v>
       </c>
       <c r="D22">
         <v>34500</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.69</v>
       </c>
       <c r="F22">
         <v>35208</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.70416000000000001</v>
       </c>
       <c r="H22">
         <v>33120</v>
       </c>
       <c r="I22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.66239999999999999</v>
       </c>
       <c r="J22">
         <v>34938</v>
       </c>
       <c r="K22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.69876000000000005</v>
       </c>
       <c r="L22">
         <v>39771</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.79542000000000002</v>
       </c>
       <c r="N22">
         <v>32531</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.65061999999999998</v>
       </c>
       <c r="P22">
         <v>34225</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.6845</v>
       </c>
       <c r="R22">
         <v>34401</v>
       </c>
       <c r="S22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.68801999999999996</v>
       </c>
       <c r="T22">
         <v>34415</v>
       </c>
       <c r="U22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.68830000000000002</v>
       </c>
       <c r="V22">
         <v>34434</v>
       </c>
       <c r="W22">
-        <f>V22/50000</f>
+        <f t="shared" si="0"/>
         <v>0.68867999999999996</v>
       </c>
       <c r="X22">
         <v>34434</v>
       </c>
       <c r="Y22">
-        <f>X22/50000</f>
+        <f t="shared" si="1"/>
         <v>0.68867999999999996</v>
       </c>
     </row>
@@ -2607,84 +2608,84 @@
         <v>2397152</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.943040000000003</v>
       </c>
       <c r="D23">
         <v>36873</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.73746</v>
       </c>
       <c r="F23">
         <v>49736</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99472000000000005</v>
       </c>
       <c r="H23">
         <v>43645</v>
       </c>
       <c r="I23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.87290000000000001</v>
       </c>
       <c r="J23">
         <v>46219</v>
       </c>
       <c r="K23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92437999999999998</v>
       </c>
       <c r="L23">
         <v>52702</v>
       </c>
       <c r="M23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0540400000000001</v>
       </c>
       <c r="N23">
         <v>40492</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.80984</v>
       </c>
       <c r="P23">
         <v>37347</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74694000000000005</v>
       </c>
       <c r="R23">
         <v>34010</v>
       </c>
       <c r="S23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.68020000000000003</v>
       </c>
       <c r="T23">
         <v>36266</v>
       </c>
       <c r="U23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.72531999999999996</v>
       </c>
       <c r="V23">
         <v>37529</v>
       </c>
       <c r="W23">
-        <f>V23/50000</f>
+        <f t="shared" si="0"/>
         <v>0.75058000000000002</v>
       </c>
       <c r="X23">
         <v>37529</v>
       </c>
       <c r="Y23">
-        <f>X23/50000</f>
+        <f t="shared" si="1"/>
         <v>0.75058000000000002</v>
       </c>
     </row>
@@ -2696,84 +2697,84 @@
         <v>2147828</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>42.956560000000003</v>
       </c>
       <c r="D24">
         <v>39380</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.78759999999999997</v>
       </c>
       <c r="F24">
         <v>46531</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93062</v>
       </c>
       <c r="H24">
         <v>44031</v>
       </c>
       <c r="I24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.88061999999999996</v>
       </c>
       <c r="J24">
         <v>37387</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74773999999999996</v>
       </c>
       <c r="L24">
         <v>46778</v>
       </c>
       <c r="M24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.93555999999999995</v>
       </c>
       <c r="N24">
         <v>39240</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.78480000000000005</v>
       </c>
       <c r="P24">
         <v>26213</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.52425999999999995</v>
       </c>
       <c r="R24">
         <v>35774</v>
       </c>
       <c r="S24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.71548</v>
       </c>
       <c r="T24">
         <v>39433</v>
       </c>
       <c r="U24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.78866000000000003</v>
       </c>
       <c r="V24">
         <v>41064</v>
       </c>
       <c r="W24">
-        <f>V24/50000</f>
+        <f t="shared" si="0"/>
         <v>0.82128000000000001</v>
       </c>
       <c r="X24">
         <v>41064</v>
       </c>
       <c r="Y24">
-        <f>X24/50000</f>
+        <f t="shared" si="1"/>
         <v>0.82128000000000001</v>
       </c>
     </row>
@@ -2785,84 +2786,84 @@
         <v>2400942</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48.018839999999997</v>
       </c>
       <c r="D25">
         <v>45926</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91852</v>
       </c>
       <c r="F25">
         <v>44872</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.89744000000000002</v>
       </c>
       <c r="H25">
         <v>44102</v>
       </c>
       <c r="I25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.88204000000000005</v>
       </c>
       <c r="J25">
         <v>37090</v>
       </c>
       <c r="K25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.74180000000000001</v>
       </c>
       <c r="L25">
         <v>50893</v>
       </c>
       <c r="M25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.01786</v>
       </c>
       <c r="N25">
         <v>46218</v>
       </c>
       <c r="O25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.92435999999999996</v>
       </c>
       <c r="P25">
         <v>38440</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.76880000000000004</v>
       </c>
       <c r="R25">
         <v>37049</v>
       </c>
       <c r="S25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.74097999999999997</v>
       </c>
       <c r="T25">
         <v>45861</v>
       </c>
       <c r="U25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.91722000000000004</v>
       </c>
       <c r="V25">
         <v>43822</v>
       </c>
       <c r="W25">
-        <f>V25/50000</f>
+        <f t="shared" si="0"/>
         <v>0.87644</v>
       </c>
       <c r="X25">
         <v>43822</v>
       </c>
       <c r="Y25">
-        <f>X25/50000</f>
+        <f t="shared" si="1"/>
         <v>0.87644</v>
       </c>
     </row>
@@ -2874,84 +2875,84 @@
         <v>2441057</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48.82114</v>
       </c>
       <c r="D26">
         <v>45820</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91639999999999999</v>
       </c>
       <c r="F26">
         <v>43826</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.87651999999999997</v>
       </c>
       <c r="H26">
         <v>44253</v>
       </c>
       <c r="I26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.88505999999999996</v>
       </c>
       <c r="J26">
         <v>43845</v>
       </c>
       <c r="K26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.87690000000000001</v>
       </c>
       <c r="L26">
         <v>49317</v>
       </c>
       <c r="M26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.98633999999999999</v>
       </c>
       <c r="N26">
         <v>44008</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.88016000000000005</v>
       </c>
       <c r="P26">
         <v>41838</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.83675999999999995</v>
       </c>
       <c r="R26">
         <v>44531</v>
       </c>
       <c r="S26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.89061999999999997</v>
       </c>
       <c r="T26">
         <v>46219</v>
       </c>
       <c r="U26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.92437999999999998</v>
       </c>
       <c r="V26">
         <v>44012</v>
       </c>
       <c r="W26">
-        <f>V26/50000</f>
+        <f t="shared" si="0"/>
         <v>0.88024000000000002</v>
       </c>
       <c r="X26">
         <v>44012</v>
       </c>
       <c r="Y26">
-        <f>X26/50000</f>
+        <f t="shared" si="1"/>
         <v>0.88024000000000002</v>
       </c>
     </row>
@@ -2963,84 +2964,84 @@
         <v>2448681</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48.973619999999997</v>
       </c>
       <c r="D27">
         <v>38870</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.77739999999999998</v>
       </c>
       <c r="F27">
         <v>39087</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.78173999999999999</v>
       </c>
       <c r="H27">
         <v>38333</v>
       </c>
       <c r="I27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.76666000000000001</v>
       </c>
       <c r="J27">
         <v>38291</v>
       </c>
       <c r="K27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.76581999999999995</v>
       </c>
       <c r="L27">
         <v>40929</v>
       </c>
       <c r="M27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.81857999999999997</v>
       </c>
       <c r="N27">
         <v>38783</v>
       </c>
       <c r="O27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.77566000000000002</v>
       </c>
       <c r="P27">
         <v>38385</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.76770000000000005</v>
       </c>
       <c r="R27">
         <v>38426</v>
       </c>
       <c r="S27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.76851999999999998</v>
       </c>
       <c r="T27">
         <v>38649</v>
       </c>
       <c r="U27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.77298</v>
       </c>
       <c r="V27">
         <v>38690</v>
       </c>
       <c r="W27">
-        <f>V27/50000</f>
+        <f t="shared" si="0"/>
         <v>0.77380000000000004</v>
       </c>
       <c r="X27">
         <v>38690</v>
       </c>
       <c r="Y27">
-        <f>X27/50000</f>
+        <f t="shared" si="1"/>
         <v>0.77380000000000004</v>
       </c>
     </row>
@@ -3052,84 +3053,84 @@
         <v>2397938</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47.958759999999998</v>
       </c>
       <c r="D28">
         <v>45616</v>
       </c>
       <c r="E28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.91232000000000002</v>
       </c>
       <c r="F28">
         <v>46711</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.93422000000000005</v>
       </c>
       <c r="H28">
         <v>42915</v>
       </c>
       <c r="I28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.85829999999999995</v>
       </c>
       <c r="J28">
         <v>38894</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.77788000000000002</v>
       </c>
       <c r="L28">
         <v>57107</v>
       </c>
       <c r="M28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1421399999999999</v>
       </c>
       <c r="N28">
         <v>53520</v>
       </c>
       <c r="O28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0704</v>
       </c>
       <c r="P28">
         <v>41390</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.82779999999999998</v>
       </c>
       <c r="R28">
         <v>50517</v>
       </c>
       <c r="S28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.01034</v>
       </c>
       <c r="T28">
         <v>44040</v>
       </c>
       <c r="U28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.88080000000000003</v>
       </c>
       <c r="V28">
         <v>43439</v>
       </c>
       <c r="W28">
-        <f>V28/50000</f>
+        <f t="shared" si="0"/>
         <v>0.86878</v>
       </c>
       <c r="X28">
         <v>43439</v>
       </c>
       <c r="Y28">
-        <f>X28/50000</f>
+        <f t="shared" si="1"/>
         <v>0.86878</v>
       </c>
     </row>
@@ -3141,84 +3142,84 @@
         <v>2494805</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>49.896099999999997</v>
       </c>
       <c r="D29">
         <v>42827</v>
       </c>
       <c r="E29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.85653999999999997</v>
       </c>
       <c r="F29">
         <v>45314</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.90627999999999997</v>
       </c>
       <c r="H29">
         <v>40023</v>
       </c>
       <c r="I29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.80045999999999995</v>
       </c>
       <c r="J29">
         <v>43505</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.87009999999999998</v>
       </c>
       <c r="L29">
         <v>51890</v>
       </c>
       <c r="M29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0378000000000001</v>
       </c>
       <c r="N29">
         <v>50651</v>
       </c>
       <c r="O29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.01302</v>
       </c>
       <c r="P29">
         <v>36916</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.73831999999999998</v>
       </c>
       <c r="R29">
         <v>41365</v>
       </c>
       <c r="S29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.82730000000000004</v>
       </c>
       <c r="T29">
         <v>42805</v>
       </c>
       <c r="U29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.85609999999999997</v>
       </c>
       <c r="V29">
         <v>43075</v>
       </c>
       <c r="W29">
-        <f>V29/50000</f>
+        <f t="shared" si="0"/>
         <v>0.86150000000000004</v>
       </c>
       <c r="X29">
         <v>43075</v>
       </c>
       <c r="Y29">
-        <f>X29/50000</f>
+        <f t="shared" si="1"/>
         <v>0.86150000000000004</v>
       </c>
     </row>
@@ -3230,84 +3231,84 @@
         <v>2427617</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>48.552340000000001</v>
       </c>
       <c r="D30">
         <v>48091</v>
       </c>
       <c r="E30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.96182000000000001</v>
       </c>
       <c r="F30">
         <v>47170</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.94340000000000002</v>
       </c>
       <c r="H30">
         <v>41857</v>
       </c>
       <c r="I30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.83714</v>
       </c>
       <c r="J30">
         <v>44793</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.89585999999999999</v>
       </c>
       <c r="L30">
         <v>53452</v>
       </c>
       <c r="M30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.06904</v>
       </c>
       <c r="N30">
         <v>48757</v>
       </c>
       <c r="O30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.97514000000000001</v>
       </c>
       <c r="P30">
         <v>42369</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.84738000000000002</v>
       </c>
       <c r="R30">
         <v>45599</v>
       </c>
       <c r="S30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.91198000000000001</v>
       </c>
       <c r="T30">
         <v>47759</v>
       </c>
       <c r="U30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.95518000000000003</v>
       </c>
       <c r="V30">
         <v>48689</v>
       </c>
       <c r="W30">
-        <f>V30/50000</f>
+        <f t="shared" si="0"/>
         <v>0.97377999999999998</v>
       </c>
       <c r="X30">
         <v>48689</v>
       </c>
       <c r="Y30">
-        <f>X30/50000</f>
+        <f t="shared" si="1"/>
         <v>0.97377999999999998</v>
       </c>
     </row>
@@ -3319,84 +3320,84 @@
         <v>2740097</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54.801940000000002</v>
       </c>
       <c r="D31">
         <v>43943</v>
       </c>
       <c r="E31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.87885999999999997</v>
       </c>
       <c r="F31">
         <v>49909</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.99817999999999996</v>
       </c>
       <c r="H31">
         <v>44519</v>
       </c>
       <c r="I31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89037999999999995</v>
       </c>
       <c r="J31">
         <v>51393</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.02786</v>
       </c>
       <c r="L31">
         <v>55197</v>
       </c>
       <c r="M31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1039399999999999</v>
       </c>
       <c r="N31">
         <v>48373</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.96745999999999999</v>
       </c>
       <c r="P31">
         <v>40086</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.80171999999999999</v>
       </c>
       <c r="R31">
         <v>46615</v>
       </c>
       <c r="S31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.93230000000000002</v>
       </c>
       <c r="T31">
         <v>42997</v>
       </c>
       <c r="U31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.85994000000000004</v>
       </c>
       <c r="V31">
         <v>44524</v>
       </c>
       <c r="W31">
-        <f>V31/50000</f>
+        <f t="shared" si="0"/>
         <v>0.89048000000000005</v>
       </c>
       <c r="X31">
         <v>44524</v>
       </c>
       <c r="Y31">
-        <f>X31/50000</f>
+        <f t="shared" si="1"/>
         <v>0.89048000000000005</v>
       </c>
     </row>
@@ -3408,84 +3409,84 @@
         <v>2754393</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>55.087859999999999</v>
       </c>
       <c r="D32">
         <v>46803</v>
       </c>
       <c r="E32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.93606</v>
       </c>
       <c r="F32">
         <v>57149</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1429800000000001</v>
       </c>
       <c r="H32">
         <v>48492</v>
       </c>
       <c r="I32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.96984000000000004</v>
       </c>
       <c r="J32">
         <v>50259</v>
       </c>
       <c r="K32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.00518</v>
       </c>
       <c r="L32">
         <v>59938</v>
       </c>
       <c r="M32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.19876</v>
       </c>
       <c r="N32">
         <v>51525</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0305</v>
       </c>
       <c r="P32">
         <v>41003</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.82006000000000001</v>
       </c>
       <c r="R32">
         <v>41518</v>
       </c>
       <c r="S32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.83035999999999999</v>
       </c>
       <c r="T32">
         <v>46800</v>
       </c>
       <c r="U32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.93600000000000005</v>
       </c>
       <c r="V32">
         <v>46620</v>
       </c>
       <c r="W32">
-        <f>V32/50000</f>
+        <f t="shared" si="0"/>
         <v>0.93240000000000001</v>
       </c>
       <c r="X32">
         <v>46620</v>
       </c>
       <c r="Y32">
-        <f>X32/50000</f>
+        <f t="shared" si="1"/>
         <v>0.93240000000000001</v>
       </c>
     </row>
@@ -3497,84 +3498,84 @@
         <v>2881686</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57.633719999999997</v>
       </c>
       <c r="D33">
         <v>40836</v>
       </c>
       <c r="E33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.81672</v>
       </c>
       <c r="F33">
         <v>41288</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.82576000000000005</v>
       </c>
       <c r="H33">
         <v>36106</v>
       </c>
       <c r="I33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.72211999999999998</v>
       </c>
       <c r="J33">
         <v>42414</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.84828000000000003</v>
       </c>
       <c r="L33">
         <v>50321</v>
       </c>
       <c r="M33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0064200000000001</v>
       </c>
       <c r="N33">
         <v>41969</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.83938000000000001</v>
       </c>
       <c r="P33">
         <v>37078</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.74156</v>
       </c>
       <c r="R33">
         <v>38215</v>
       </c>
       <c r="S33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.76429999999999998</v>
       </c>
       <c r="T33">
         <v>43197</v>
       </c>
       <c r="U33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.86394000000000004</v>
       </c>
       <c r="V33">
         <v>40078</v>
       </c>
       <c r="W33">
-        <f>V33/50000</f>
+        <f t="shared" si="0"/>
         <v>0.80156000000000005</v>
       </c>
       <c r="X33">
         <v>40078</v>
       </c>
       <c r="Y33">
-        <f>X33/50000</f>
+        <f t="shared" si="1"/>
         <v>0.80156000000000005</v>
       </c>
     </row>
@@ -3586,84 +3587,84 @@
         <v>2908584</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>58.171680000000002</v>
       </c>
       <c r="D34">
         <v>34686</v>
       </c>
       <c r="E34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.69372</v>
       </c>
       <c r="F34">
         <v>43701</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.87402000000000002</v>
       </c>
       <c r="H34">
         <v>36021</v>
       </c>
       <c r="I34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.72041999999999995</v>
       </c>
       <c r="J34">
         <v>42896</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.85792000000000002</v>
       </c>
       <c r="L34">
         <v>44223</v>
       </c>
       <c r="M34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.88446000000000002</v>
       </c>
       <c r="N34">
         <v>35052</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.70104</v>
       </c>
       <c r="P34">
         <v>35991</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.71982000000000002</v>
       </c>
       <c r="R34">
         <v>37547</v>
       </c>
       <c r="S34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.75094000000000005</v>
       </c>
       <c r="T34">
         <v>34801</v>
       </c>
       <c r="U34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.69601999999999997</v>
       </c>
       <c r="V34">
         <v>35029</v>
       </c>
       <c r="W34">
-        <f>V34/50000</f>
+        <f t="shared" ref="W34:W65" si="12">V34/50000</f>
         <v>0.70057999999999998</v>
       </c>
       <c r="X34">
         <v>35029</v>
       </c>
       <c r="Y34">
-        <f>X34/50000</f>
+        <f t="shared" ref="Y34:Y65" si="13">X34/50000</f>
         <v>0.70057999999999998</v>
       </c>
     </row>
@@ -3675,84 +3676,84 @@
         <v>2943541</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>58.870820000000002</v>
       </c>
       <c r="D35">
         <v>44644</v>
       </c>
       <c r="E35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.89288000000000001</v>
       </c>
       <c r="F35">
         <v>43631</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.87261999999999995</v>
       </c>
       <c r="H35">
         <v>38874</v>
       </c>
       <c r="I35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.77747999999999995</v>
       </c>
       <c r="J35">
         <v>45093</v>
       </c>
       <c r="K35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.90185999999999999</v>
       </c>
       <c r="L35">
         <v>46425</v>
       </c>
       <c r="M35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.92849999999999999</v>
       </c>
       <c r="N35">
         <v>45472</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.90944000000000003</v>
       </c>
       <c r="P35">
         <v>38772</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.77544000000000002</v>
       </c>
       <c r="R35">
         <v>41386</v>
       </c>
       <c r="S35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.82772000000000001</v>
       </c>
       <c r="T35">
         <v>43845</v>
       </c>
       <c r="U35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.87690000000000001</v>
       </c>
       <c r="V35">
         <v>44623</v>
       </c>
       <c r="W35">
-        <f>V35/50000</f>
+        <f t="shared" si="12"/>
         <v>0.89246000000000003</v>
       </c>
       <c r="X35">
         <v>44623</v>
       </c>
       <c r="Y35">
-        <f>X35/50000</f>
+        <f t="shared" si="13"/>
         <v>0.89246000000000003</v>
       </c>
     </row>
@@ -3764,84 +3765,84 @@
         <v>2996775</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>59.935499999999998</v>
       </c>
       <c r="D36">
         <v>33905</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.67810000000000004</v>
       </c>
       <c r="F36">
         <v>44788</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.89576</v>
       </c>
       <c r="H36">
         <v>32193</v>
       </c>
       <c r="I36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.64385999999999999</v>
       </c>
       <c r="J36">
         <v>46137</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92274</v>
       </c>
       <c r="L36">
         <v>52102</v>
       </c>
       <c r="M36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0420400000000001</v>
       </c>
       <c r="N36">
         <v>36830</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.73660000000000003</v>
       </c>
       <c r="P36">
         <v>43353</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.86706000000000005</v>
       </c>
       <c r="R36">
         <v>47120</v>
       </c>
       <c r="S36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.94240000000000002</v>
       </c>
       <c r="T36">
         <v>34275</v>
       </c>
       <c r="U36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.6855</v>
       </c>
       <c r="V36">
         <v>34546</v>
       </c>
       <c r="W36">
-        <f>V36/50000</f>
+        <f t="shared" si="12"/>
         <v>0.69091999999999998</v>
       </c>
       <c r="X36">
         <v>34546</v>
       </c>
       <c r="Y36">
-        <f>X36/50000</f>
+        <f t="shared" si="13"/>
         <v>0.69091999999999998</v>
       </c>
     </row>
@@ -3853,84 +3854,84 @@
         <v>3166016</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63.320320000000002</v>
       </c>
       <c r="D37">
         <v>53477</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0695399999999999</v>
       </c>
       <c r="F37">
         <v>56490</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1297999999999999</v>
       </c>
       <c r="H37">
         <v>53440</v>
       </c>
       <c r="I37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0688</v>
       </c>
       <c r="J37">
         <v>63202</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2640400000000001</v>
       </c>
       <c r="L37">
         <v>61011</v>
       </c>
       <c r="M37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2202200000000001</v>
       </c>
       <c r="N37">
         <v>53417</v>
       </c>
       <c r="O37">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0683400000000001</v>
       </c>
       <c r="P37">
         <v>53451</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0690200000000001</v>
       </c>
       <c r="R37">
         <v>53360</v>
       </c>
       <c r="S37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.0671999999999999</v>
       </c>
       <c r="T37">
         <v>53517</v>
       </c>
       <c r="U37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0703400000000001</v>
       </c>
       <c r="V37">
         <v>53708</v>
       </c>
       <c r="W37">
-        <f>V37/50000</f>
+        <f t="shared" si="12"/>
         <v>1.07416</v>
       </c>
       <c r="X37">
         <v>53708</v>
       </c>
       <c r="Y37">
-        <f>X37/50000</f>
+        <f t="shared" si="13"/>
         <v>1.07416</v>
       </c>
     </row>
@@ -3942,84 +3943,84 @@
         <v>3299369</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65.987380000000002</v>
       </c>
       <c r="D38">
         <v>43579</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.87158000000000002</v>
       </c>
       <c r="F38">
         <v>47535</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.95069999999999999</v>
       </c>
       <c r="H38">
         <v>51107</v>
       </c>
       <c r="I38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.02214</v>
       </c>
       <c r="J38">
         <v>50683</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.01366</v>
       </c>
       <c r="L38">
         <v>55405</v>
       </c>
       <c r="M38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1081000000000001</v>
       </c>
       <c r="N38">
         <v>44621</v>
       </c>
       <c r="O38">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.89241999999999999</v>
       </c>
       <c r="P38">
         <v>44615</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.89229999999999998</v>
       </c>
       <c r="R38">
         <v>45353</v>
       </c>
       <c r="S38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.90705999999999998</v>
       </c>
       <c r="T38">
         <v>43945</v>
       </c>
       <c r="U38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.87890000000000001</v>
       </c>
       <c r="V38">
         <v>42590</v>
       </c>
       <c r="W38">
-        <f>V38/50000</f>
+        <f t="shared" si="12"/>
         <v>0.8518</v>
       </c>
       <c r="X38">
         <v>42590</v>
       </c>
       <c r="Y38">
-        <f>X38/50000</f>
+        <f t="shared" si="13"/>
         <v>0.8518</v>
       </c>
     </row>
@@ -4031,84 +4032,84 @@
         <v>3296277</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>65.925539999999998</v>
       </c>
       <c r="D39">
         <v>53959</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.07918</v>
       </c>
       <c r="F39">
         <v>54432</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0886400000000001</v>
       </c>
       <c r="H39">
         <v>53157</v>
       </c>
       <c r="I39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.06314</v>
       </c>
       <c r="J39">
         <v>51221</v>
       </c>
       <c r="K39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0244200000000001</v>
       </c>
       <c r="L39">
         <v>62301</v>
       </c>
       <c r="M39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2460199999999999</v>
       </c>
       <c r="N39">
         <v>53896</v>
       </c>
       <c r="O39">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.07792</v>
       </c>
       <c r="P39">
         <v>53548</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0709599999999999</v>
       </c>
       <c r="R39">
         <v>55020</v>
       </c>
       <c r="S39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1004</v>
       </c>
       <c r="T39">
         <v>53528</v>
       </c>
       <c r="U39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.07056</v>
       </c>
       <c r="V39">
         <v>54061</v>
       </c>
       <c r="W39">
-        <f>V39/50000</f>
+        <f t="shared" si="12"/>
         <v>1.0812200000000001</v>
       </c>
       <c r="X39">
         <v>54061</v>
       </c>
       <c r="Y39">
-        <f>X39/50000</f>
+        <f t="shared" si="13"/>
         <v>1.0812200000000001</v>
       </c>
     </row>
@@ -4120,84 +4121,84 @@
         <v>3336080</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>66.721599999999995</v>
       </c>
       <c r="D40">
         <v>41299</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.82598000000000005</v>
       </c>
       <c r="F40">
         <v>40173</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.80345999999999995</v>
       </c>
       <c r="H40">
         <v>44548</v>
       </c>
       <c r="I40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89095999999999997</v>
       </c>
       <c r="J40">
         <v>41796</v>
       </c>
       <c r="K40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.83592</v>
       </c>
       <c r="L40">
         <v>45492</v>
       </c>
       <c r="M40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.90983999999999998</v>
       </c>
       <c r="N40">
         <v>42738</v>
       </c>
       <c r="O40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.85475999999999996</v>
       </c>
       <c r="P40">
         <v>37901</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.75802000000000003</v>
       </c>
       <c r="R40">
         <v>40061</v>
       </c>
       <c r="S40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.80122000000000004</v>
       </c>
       <c r="T40">
         <v>47373</v>
       </c>
       <c r="U40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.94745999999999997</v>
       </c>
       <c r="V40">
         <v>43286</v>
       </c>
       <c r="W40">
-        <f>V40/50000</f>
+        <f t="shared" si="12"/>
         <v>0.86572000000000005</v>
       </c>
       <c r="X40">
         <v>43286</v>
       </c>
       <c r="Y40">
-        <f>X40/50000</f>
+        <f t="shared" si="13"/>
         <v>0.86572000000000005</v>
       </c>
     </row>
@@ -4209,84 +4210,84 @@
         <v>3820792</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>76.415840000000003</v>
       </c>
       <c r="D41">
         <v>483</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.6600000000000002E-3</v>
       </c>
       <c r="F41">
         <v>29290</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.58579999999999999</v>
       </c>
       <c r="H41">
         <v>44549</v>
       </c>
       <c r="I41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89097999999999999</v>
       </c>
       <c r="J41">
         <v>26842</v>
       </c>
       <c r="K41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.53683999999999998</v>
       </c>
       <c r="L41">
         <v>18584</v>
       </c>
       <c r="M41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.37168000000000001</v>
       </c>
       <c r="N41">
         <v>632</v>
       </c>
       <c r="O41">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.264E-2</v>
       </c>
       <c r="P41">
         <v>18107</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.36214000000000002</v>
       </c>
       <c r="R41">
         <v>728</v>
       </c>
       <c r="S41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.456E-2</v>
       </c>
       <c r="T41">
         <v>4824</v>
       </c>
       <c r="U41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9.6479999999999996E-2</v>
       </c>
       <c r="V41">
         <v>4585</v>
       </c>
       <c r="W41">
-        <f>V41/50000</f>
+        <f t="shared" si="12"/>
         <v>9.1700000000000004E-2</v>
       </c>
       <c r="X41">
         <v>4585</v>
       </c>
       <c r="Y41">
-        <f>X41/50000</f>
+        <f t="shared" si="13"/>
         <v>9.1700000000000004E-2</v>
       </c>
     </row>
@@ -4298,84 +4299,84 @@
         <v>4033919</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.678380000000004</v>
       </c>
       <c r="D42">
         <v>50999</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0199800000000001</v>
       </c>
       <c r="F42">
         <v>50710</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0142</v>
       </c>
       <c r="H42">
         <v>51891</v>
       </c>
       <c r="I42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.03782</v>
       </c>
       <c r="J42">
         <v>50542</v>
       </c>
       <c r="K42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.01084</v>
       </c>
       <c r="L42">
         <v>40978</v>
       </c>
       <c r="M42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.81955999999999996</v>
       </c>
       <c r="N42">
         <v>50358</v>
       </c>
       <c r="O42">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0071600000000001</v>
       </c>
       <c r="P42">
         <v>50285</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.0057</v>
       </c>
       <c r="R42">
         <v>50283</v>
       </c>
       <c r="S42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.00566</v>
       </c>
       <c r="T42">
         <v>51067</v>
       </c>
       <c r="U42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0213399999999999</v>
       </c>
       <c r="V42">
         <v>51186</v>
       </c>
       <c r="W42">
-        <f>V42/50000</f>
+        <f t="shared" si="12"/>
         <v>1.02372</v>
       </c>
       <c r="X42">
         <v>51186</v>
       </c>
       <c r="Y42">
-        <f>X42/50000</f>
+        <f t="shared" si="13"/>
         <v>1.02372</v>
       </c>
     </row>
@@ -4387,84 +4388,84 @@
         <v>4040254</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>80.805080000000004</v>
       </c>
       <c r="D43">
         <v>45118</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.90236000000000005</v>
       </c>
       <c r="F43">
         <v>45029</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.90058000000000005</v>
       </c>
       <c r="H43">
         <v>45192</v>
       </c>
       <c r="I43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.90383999999999998</v>
       </c>
       <c r="J43">
         <v>61665</v>
       </c>
       <c r="K43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2333000000000001</v>
       </c>
       <c r="L43">
         <v>45810</v>
       </c>
       <c r="M43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.91620000000000001</v>
       </c>
       <c r="N43">
         <v>45170</v>
       </c>
       <c r="O43">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.90339999999999998</v>
       </c>
       <c r="P43">
         <v>45487</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.90973999999999999</v>
       </c>
       <c r="R43">
         <v>45215</v>
       </c>
       <c r="S43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.90429999999999999</v>
       </c>
       <c r="T43">
         <v>45116</v>
       </c>
       <c r="U43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.90232000000000001</v>
       </c>
       <c r="V43">
         <v>45055</v>
       </c>
       <c r="W43">
-        <f>V43/50000</f>
+        <f t="shared" si="12"/>
         <v>0.90110000000000001</v>
       </c>
       <c r="X43">
         <v>45055</v>
       </c>
       <c r="Y43">
-        <f>X43/50000</f>
+        <f t="shared" si="13"/>
         <v>0.90110000000000001</v>
       </c>
     </row>
@@ -4476,84 +4477,84 @@
         <v>4087300</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>81.745999999999995</v>
       </c>
       <c r="D44">
         <v>87568</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.75136</v>
       </c>
       <c r="F44">
         <v>89692</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.7938400000000001</v>
       </c>
       <c r="H44">
         <v>57426</v>
       </c>
       <c r="I44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.14852</v>
       </c>
       <c r="J44">
         <v>67826</v>
       </c>
       <c r="K44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3565199999999999</v>
       </c>
       <c r="L44">
         <v>101658</v>
       </c>
       <c r="M44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.0331600000000001</v>
       </c>
       <c r="N44">
         <v>87983</v>
       </c>
       <c r="O44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.75966</v>
       </c>
       <c r="P44">
         <v>88626</v>
       </c>
       <c r="Q44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7725200000000001</v>
       </c>
       <c r="R44">
         <v>87364</v>
       </c>
       <c r="S44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.7472799999999999</v>
       </c>
       <c r="T44">
         <v>87568</v>
       </c>
       <c r="U44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.75136</v>
       </c>
       <c r="V44">
         <v>87469</v>
       </c>
       <c r="W44">
-        <f>V44/50000</f>
+        <f t="shared" si="12"/>
         <v>1.7493799999999999</v>
       </c>
       <c r="X44">
         <v>87469</v>
       </c>
       <c r="Y44">
-        <f>X44/50000</f>
+        <f t="shared" si="13"/>
         <v>1.7493799999999999</v>
       </c>
     </row>
@@ -4565,84 +4566,84 @@
         <v>220057</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4011399999999998</v>
       </c>
       <c r="D45">
         <v>54975</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.0994999999999999</v>
       </c>
       <c r="F45">
         <v>56585</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1316999999999999</v>
       </c>
       <c r="H45">
         <v>56674</v>
       </c>
       <c r="I45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.13348</v>
       </c>
       <c r="J45">
         <v>54753</v>
       </c>
       <c r="K45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0950599999999999</v>
       </c>
       <c r="L45">
         <v>64218</v>
       </c>
       <c r="M45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2843599999999999</v>
       </c>
       <c r="N45">
         <v>57939</v>
       </c>
       <c r="O45">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1587799999999999</v>
       </c>
       <c r="P45">
         <v>57470</v>
       </c>
       <c r="Q45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1494</v>
       </c>
       <c r="R45">
         <v>60332</v>
       </c>
       <c r="S45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.2066399999999999</v>
       </c>
       <c r="T45">
         <v>51185</v>
       </c>
       <c r="U45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.0237000000000001</v>
       </c>
       <c r="V45">
         <v>49565</v>
       </c>
       <c r="W45">
-        <f>V45/50000</f>
+        <f t="shared" si="12"/>
         <v>0.99129999999999996</v>
       </c>
       <c r="X45">
         <v>49565</v>
       </c>
       <c r="Y45">
-        <f>X45/50000</f>
+        <f t="shared" si="13"/>
         <v>0.99129999999999996</v>
       </c>
     </row>
@@ -4654,84 +4655,84 @@
         <v>543520</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.8704</v>
       </c>
       <c r="D46">
         <v>49171</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.98341999999999996</v>
       </c>
       <c r="F46">
         <v>52526</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.0505199999999999</v>
       </c>
       <c r="H46">
         <v>54563</v>
       </c>
       <c r="I46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.0912599999999999</v>
       </c>
       <c r="J46">
         <v>49046</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.98092000000000001</v>
       </c>
       <c r="L46">
         <v>58695</v>
       </c>
       <c r="M46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.1738999999999999</v>
       </c>
       <c r="N46">
         <v>52430</v>
       </c>
       <c r="O46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.0486</v>
       </c>
       <c r="P46">
         <v>47366</v>
       </c>
       <c r="Q46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.94732000000000005</v>
       </c>
       <c r="R46">
         <v>55642</v>
       </c>
       <c r="S46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.1128400000000001</v>
       </c>
       <c r="T46">
         <v>48397</v>
       </c>
       <c r="U46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.96794000000000002</v>
       </c>
       <c r="V46">
         <v>48664</v>
       </c>
       <c r="W46">
-        <f>V46/50000</f>
+        <f t="shared" si="12"/>
         <v>0.97328000000000003</v>
       </c>
       <c r="X46">
         <v>48664</v>
       </c>
       <c r="Y46">
-        <f>X46/50000</f>
+        <f t="shared" si="13"/>
         <v>0.97328000000000003</v>
       </c>
     </row>
@@ -4743,84 +4744,84 @@
         <v>677377</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.54754</v>
       </c>
       <c r="D47">
         <v>63266</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.26532</v>
       </c>
       <c r="F47">
         <v>65420</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3084</v>
       </c>
       <c r="H47">
         <v>67581</v>
       </c>
       <c r="I47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.35162</v>
       </c>
       <c r="J47">
         <v>61731</v>
       </c>
       <c r="K47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.2346200000000001</v>
       </c>
       <c r="L47">
         <v>70787</v>
       </c>
       <c r="M47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.41574</v>
       </c>
       <c r="N47">
         <v>64700</v>
       </c>
       <c r="O47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.294</v>
       </c>
       <c r="P47">
         <v>61307</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.22614</v>
       </c>
       <c r="R47">
         <v>65697</v>
       </c>
       <c r="S47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.3139400000000001</v>
       </c>
       <c r="T47">
         <v>62621</v>
       </c>
       <c r="U47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2524200000000001</v>
       </c>
       <c r="V47">
         <v>63158</v>
       </c>
       <c r="W47">
-        <f>V47/50000</f>
+        <f t="shared" si="12"/>
         <v>1.2631600000000001</v>
       </c>
       <c r="X47">
         <v>63158</v>
       </c>
       <c r="Y47">
-        <f>X47/50000</f>
+        <f t="shared" si="13"/>
         <v>1.2631600000000001</v>
       </c>
     </row>
@@ -4832,84 +4833,84 @@
         <v>324489</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4897799999999997</v>
       </c>
       <c r="D48">
         <v>47264</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.94528000000000001</v>
       </c>
       <c r="F48">
         <v>57552</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.1510400000000001</v>
       </c>
       <c r="H48">
         <v>37283</v>
       </c>
       <c r="I48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.74565999999999999</v>
       </c>
       <c r="J48">
         <v>50915</v>
       </c>
       <c r="K48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0183</v>
       </c>
       <c r="L48">
         <v>64329</v>
       </c>
       <c r="M48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.2865800000000001</v>
       </c>
       <c r="N48">
         <v>50993</v>
       </c>
       <c r="O48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.01986</v>
       </c>
       <c r="P48">
         <v>60598</v>
       </c>
       <c r="Q48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2119599999999999</v>
       </c>
       <c r="R48">
         <v>69933</v>
       </c>
       <c r="S48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.39866</v>
       </c>
       <c r="T48">
         <v>42203</v>
       </c>
       <c r="U48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0.84406000000000003</v>
       </c>
       <c r="V48">
         <v>37050</v>
       </c>
       <c r="W48">
-        <f>V48/50000</f>
+        <f t="shared" si="12"/>
         <v>0.74099999999999999</v>
       </c>
       <c r="X48">
         <v>37050</v>
       </c>
       <c r="Y48">
-        <f>X48/50000</f>
+        <f t="shared" si="13"/>
         <v>0.74099999999999999</v>
       </c>
     </row>
@@ -4921,84 +4922,84 @@
         <v>423479</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.4695800000000006</v>
       </c>
       <c r="D49">
         <v>71263</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.42526</v>
       </c>
       <c r="F49">
         <v>81140</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.6228</v>
       </c>
       <c r="H49">
         <v>59715</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1942999999999999</v>
       </c>
       <c r="J49">
         <v>78152</v>
       </c>
       <c r="K49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.56304</v>
       </c>
       <c r="L49">
         <v>93195</v>
       </c>
       <c r="M49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.8638999999999999</v>
       </c>
       <c r="N49">
         <v>80191</v>
       </c>
       <c r="O49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.60382</v>
       </c>
       <c r="P49">
         <v>91076</v>
       </c>
       <c r="Q49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.82152</v>
       </c>
       <c r="R49">
         <v>98336</v>
       </c>
       <c r="S49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.96672</v>
       </c>
       <c r="T49">
         <v>62998</v>
       </c>
       <c r="U49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.25996</v>
       </c>
       <c r="V49">
         <v>56801</v>
       </c>
       <c r="W49">
-        <f>V49/50000</f>
+        <f t="shared" si="12"/>
         <v>1.13602</v>
       </c>
       <c r="X49">
         <v>56801</v>
       </c>
       <c r="Y49">
-        <f>X49/50000</f>
+        <f t="shared" si="13"/>
         <v>1.13602</v>
       </c>
     </row>
@@ -5010,63 +5011,63 @@
         <v>307548</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.1509600000000004</v>
       </c>
       <c r="D50">
         <v>58607</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.17214</v>
       </c>
       <c r="F50">
         <v>66020</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1.3204</v>
       </c>
       <c r="H50">
         <v>58803</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.1760600000000001</v>
       </c>
       <c r="J50">
         <v>66463</v>
       </c>
       <c r="K50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.3292600000000001</v>
       </c>
       <c r="L50">
         <v>70828</v>
       </c>
       <c r="M50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.41656</v>
       </c>
       <c r="N50">
         <v>63045</v>
       </c>
       <c r="O50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.2608999999999999</v>
       </c>
       <c r="P50">
         <v>64426</v>
       </c>
       <c r="Q50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.2885200000000001</v>
       </c>
       <c r="R50">
         <v>71267</v>
       </c>
       <c r="S50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4253400000000001</v>
       </c>
       <c r="T50">
@@ -5080,14 +5081,14 @@
         <v>45613</v>
       </c>
       <c r="W50">
-        <f>V50/50000</f>
+        <f t="shared" si="12"/>
         <v>0.91225999999999996</v>
       </c>
       <c r="X50">
         <v>45613</v>
       </c>
       <c r="Y50">
-        <f>X50/50000</f>
+        <f t="shared" si="13"/>
         <v>0.91225999999999996</v>
       </c>
     </row>
@@ -5099,28 +5100,28 @@
         <v>260110</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.2022000000000004</v>
       </c>
       <c r="D51">
         <v>7110</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.14219999999999999</v>
       </c>
       <c r="F51">
         <v>8225</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.16450000000000001</v>
       </c>
       <c r="H51">
         <v>7412</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.14824000000000001</v>
       </c>
       <c r="J51">
@@ -5131,28 +5132,28 @@
         <v>8290</v>
       </c>
       <c r="L51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.1658</v>
       </c>
       <c r="M51">
         <v>7219</v>
       </c>
       <c r="N51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14438000000000001</v>
       </c>
       <c r="O51">
         <v>7355</v>
       </c>
       <c r="P51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.14710000000000001</v>
       </c>
       <c r="Q51">
         <v>7327</v>
       </c>
       <c r="R51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.14654</v>
       </c>
       <c r="T51">
@@ -5166,14 +5167,14 @@
         <v>7009</v>
       </c>
       <c r="W51">
-        <f>V51/50000</f>
+        <f t="shared" si="12"/>
         <v>0.14018</v>
       </c>
       <c r="X51">
         <v>7009</v>
       </c>
       <c r="Y51">
-        <f>X51/50000</f>
+        <f t="shared" si="13"/>
         <v>0.14018</v>
       </c>
     </row>
@@ -5218,27 +5219,27 @@
         <v>70065.422930800007</v>
       </c>
       <c r="T52">
-        <f>AVERAGE(T2:T51)</f>
+        <f t="shared" ref="T52:Y52" si="14">AVERAGE(T2:T51)</f>
         <v>51414.66</v>
       </c>
       <c r="U52">
-        <f>AVERAGE(U2:U51)</f>
+        <f t="shared" si="14"/>
         <v>1.0282932</v>
       </c>
       <c r="V52">
-        <f>AVERAGE(V2:V51)</f>
+        <f t="shared" si="14"/>
         <v>50646.04</v>
       </c>
       <c r="W52">
-        <f>AVERAGE(W2:W51)</f>
+        <f t="shared" si="14"/>
         <v>1.0129208000000005</v>
       </c>
       <c r="X52">
-        <f>AVERAGE(X2:X51)</f>
+        <f t="shared" si="14"/>
         <v>50646.04</v>
       </c>
       <c r="Y52">
-        <f>AVERAGE(Y2:Y51)</f>
+        <f t="shared" si="14"/>
         <v>1.0129208000000005</v>
       </c>
     </row>
